--- a/Gestion del conocimiento/Documentacion/reporte ms.xlsx
+++ b/Gestion del conocimiento/Documentacion/reporte ms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -654,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,7 +806,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,6 +1010,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1186,7 +1192,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1210,6 +1216,16 @@
     <xf numFmtId="22" fontId="18" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1230,7 +1246,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -1533,11 +1549,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -1560,7 +1578,7 @@
     <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1625,66 +1643,66 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:21" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>10308</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="9">
         <v>83226172</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="K2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="10">
         <v>43560.402777777781</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="4" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="9">
         <v>88213248</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1814,129 +1832,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+    <row r="5" spans="1:21" s="12" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>10452</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="9">
         <v>1117493198</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="K5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>43608.6875</v>
       </c>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="9">
         <v>1075216539</v>
       </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="12" customFormat="1" ht="77.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>10472</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="9">
         <v>40764440</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="K6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="10">
         <v>43615.339583333334</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="4" t="s">
+      <c r="Q6" s="11"/>
+      <c r="R6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="9">
         <v>1075216539</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2003,255 +2021,255 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" spans="1:21" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>10547</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="B8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="9">
         <v>230357</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="K8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="10">
         <v>43626.620138888888</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="4" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="9">
         <v>88213248</v>
       </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="1" customFormat="1" ht="179.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="12" customFormat="1" ht="179.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>10553</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="9">
         <v>80763827</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="7" t="s">
+      <c r="K9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="10">
         <v>43627.470138888886</v>
       </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7" t="s">
+      <c r="Q9" s="11"/>
+      <c r="R9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="9">
         <v>88213248</v>
       </c>
-      <c r="U9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="12" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>10618</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="9">
         <v>40783412</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="K10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="10">
         <v>43630.382638888892</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="4" t="s">
+      <c r="Q10" s="11"/>
+      <c r="R10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="9">
         <v>88213248</v>
       </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="U10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="12" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10619</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="9">
         <v>80093011</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="K11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="10">
         <v>43630.388194444444</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7" t="s">
+      <c r="Q11" s="11"/>
+      <c r="R11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="9">
         <v>88213248</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2444,129 +2462,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:21" s="12" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>10675</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="B15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="9">
         <v>1117515231</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="K15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="10">
         <v>43643.477083333331</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="7" t="s">
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="9">
         <v>1117507200</v>
       </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="U15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="12" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>10679</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="9">
         <v>1117530255</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="K16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="10">
         <v>43644.318749999999</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4" t="s">
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="9">
         <v>1105871017</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="9">
         <v>0</v>
       </c>
     </row>
@@ -4019,129 +4037,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="40" spans="1:21" s="12" customFormat="1" ht="39" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>10831</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="B40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="9">
         <v>40614288</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" s="4" t="s">
+      <c r="K40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="P40" s="5">
+      <c r="P40" s="10">
         <v>43665.431250000001</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="4" t="s">
+      <c r="Q40" s="11"/>
+      <c r="R40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="T40" s="4">
+      <c r="T40" s="9">
         <v>1105871017</v>
       </c>
-      <c r="U40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" s="1" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
+      <c r="U40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" s="12" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>10832</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="B41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="9">
         <v>1117517756</v>
       </c>
-      <c r="K41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="7" t="s">
+      <c r="K41" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="10">
         <v>43665.45416666667</v>
       </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="7" t="s">
+      <c r="Q41" s="11"/>
+      <c r="R41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="T41" s="7">
+      <c r="T41" s="9">
         <v>1105871017</v>
       </c>
-      <c r="U41" s="7">
+      <c r="U41" s="9">
         <v>0</v>
       </c>
     </row>
